--- a/CallCenter/ReportingFolder/Notes_Rerpot.xlsx
+++ b/CallCenter/ReportingFolder/Notes_Rerpot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Note Date</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>2018-02-01 00:02:00</t>
+    <t>2018-05-14 19:05:44</t>
   </si>
   <si>
     <t>SYS</t>
@@ -46,10 +46,10 @@
     <t>NEW</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2018-02-05 00:02:00</t>
+    <t>System: New account placed!</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:29</t>
   </si>
   <si>
     <t>CALL</t>
@@ -58,43 +58,46 @@
     <t>OPEN</t>
   </si>
   <si>
-    <t>Call this guy! He refuse to give us the money.</t>
-  </si>
-  <si>
-    <t>2018-02-06 00:02:00</t>
+    <t>Call this guy! He refuse to give us the money!</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:56</t>
   </si>
   <si>
     <t>EML</t>
   </si>
   <si>
-    <t>Sent email to this guy regarding the financial situation.</t>
-  </si>
-  <si>
-    <t>2018-05-08 04:05:18</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>Call this guy! He still refuse to give us the money.</t>
-  </si>
-  <si>
-    <t>2018-05-08 04:05:56</t>
-  </si>
-  <si>
-    <t>2018-05-08 15:05:25</t>
+    <t>Sent email to the customer about the payment agreement!</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:38</t>
+  </si>
+  <si>
+    <t>PRQ</t>
+  </si>
+  <si>
+    <t>Talk with Sergiu he agree to pay 3 of his 5 invoices. Sent payment request!</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:49</t>
   </si>
   <si>
     <t>PENDING</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>2018-05-12 15:05:25</t>
-  </si>
-  <si>
-    <t>Test this note!</t>
+    <t>2018-05-14 20:05:35</t>
+  </si>
+  <si>
+    <t>Call Sergiu about the other 2 invoices. He inform me that he will pay those next month.</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:01</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>Put on hold for now.</t>
   </si>
 </sst>
 </file>
@@ -597,15 +600,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -617,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -634,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
